--- a/similarities/split_global/harmonic_similarity_timestamps_12.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:52.440000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=34.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:26.160000', '0:00:34.300000')]</t>
+          <t>('0:00:47.680000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:30.940000', '0:00:40.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000')]</t>
+          <t>('0:00:58.880000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=30.94</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.88</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:32.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:24.280000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000')]</t>
+          <t>('0:00:19.727000', '0:00:41.282000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:00:10.540000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:01:28.480000', '0:01:40.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:09.240000', '0:00:12.560000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=88.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
+          <t>('0:00:12.824000', '0:00:20.865000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['F', 'Bb', 'F', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:15.124263', '0:00:21.811609')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000'), ('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:58.080000', '0:01:09.440000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:50.840000')]</t>
+          <t>('0:00:00.220000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:00:49.140000', '0:01:02.460000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=49.14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.700000', '0:00:03.780000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>['A:min', 'C', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['C:min/D#', 'D#/G', 'C:min/G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:45.962142', '0:00:51.024092')]</t>
+          <t>('0:01:12.754489', '0:01:20.463514')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:53.380000', '0:02:56.020000')]</t>
+          <t>('0:01:02.980000', '0:01:06.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=45.962142']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=72.754489</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=173.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=62.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:01:02.360000')]</t>
+          <t>('0:00:13.080000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+          <t>('0:00:13.500000', '0:00:25.260000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['G:7', 'C', 'C#:dim7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['Eb:7', 'Ab', 'Gb:dim7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+          <t>('0:00:43.200000', '0:00:47.350000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:00:24.660000', '0:00:28.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=43.2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=24.66</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000')]</t>
+          <t>('0:00:43.140000', '0:01:00.240000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
